--- a/data/league_data/germany/19/germany_shot_creation.xlsx
+++ b/data/league_data/germany/19/germany_shot_creation.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sanjitvarma/Desktop/trial_git/Predicting-Football-Player-Transfer-Values/data/league_data/germany/19/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2111BA1D-E7E3-CA49-9415-7226A4C88433}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4663E260-6C02-904C-B5B2-53811A0DA0FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14720"/>
+    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -1144,9 +1144,6 @@
     <t>gh GHA</t>
   </si>
   <si>
-    <t>Rafinha</t>
-  </si>
-  <si>
     <t>Robin Zentner</t>
   </si>
   <si>
@@ -1736,12 +1733,15 @@
   </si>
   <si>
     <t>Jozo Stanić</t>
+  </si>
+  <si>
+    <t>Rafinha de Souza</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -2596,14 +2596,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X476"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:X475"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="A274" workbookViewId="0">
+      <selection activeCell="B289" sqref="B289"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.5" bestFit="1" customWidth="1"/>
@@ -2631,7 +2631,7 @@
     <col min="24" max="24" width="3.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -2705,7 +2705,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2779,7 +2779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2853,7 +2853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -2927,7 +2927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -3001,7 +3001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -3075,7 +3075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -3149,7 +3149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -3223,7 +3223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -3297,7 +3297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -3371,7 +3371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -3445,7 +3445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -3519,7 +3519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -3593,7 +3593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -3667,7 +3667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -3741,7 +3741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -3815,7 +3815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -3889,7 +3889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -3963,7 +3963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -4037,7 +4037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -4111,7 +4111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -4259,7 +4259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -4333,7 +4333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -4407,7 +4407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -4481,7 +4481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -4555,7 +4555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -4629,7 +4629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -4703,7 +4703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -4777,7 +4777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -4851,7 +4851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -4925,7 +4925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -4999,7 +4999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -5073,7 +5073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -5147,7 +5147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -5221,7 +5221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -5295,7 +5295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -5369,7 +5369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -5443,7 +5443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -5517,7 +5517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -5591,7 +5591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -5665,7 +5665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -5739,7 +5739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -5813,7 +5813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -5887,7 +5887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -5961,7 +5961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -6035,7 +6035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -6109,7 +6109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -6183,7 +6183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -6257,7 +6257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -6331,7 +6331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -6405,7 +6405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -6479,7 +6479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -6553,7 +6553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -6627,7 +6627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -6701,7 +6701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -6775,7 +6775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -6849,7 +6849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -6923,7 +6923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -6997,7 +6997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -7071,7 +7071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -7145,7 +7145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -7219,7 +7219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -7293,7 +7293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -7367,7 +7367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -7441,7 +7441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -7515,7 +7515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -7589,7 +7589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -7663,7 +7663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -7737,7 +7737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -7811,7 +7811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -7885,7 +7885,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -7959,7 +7959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -8033,7 +8033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -8107,7 +8107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -8181,7 +8181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -8255,7 +8255,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -8329,7 +8329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -8403,7 +8403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -8477,7 +8477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -8551,7 +8551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -8625,7 +8625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>81</v>
       </c>
@@ -8699,7 +8699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -8773,7 +8773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>83</v>
       </c>
@@ -8847,7 +8847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -8921,7 +8921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>85</v>
       </c>
@@ -8995,7 +8995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>86</v>
       </c>
@@ -9069,7 +9069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>87</v>
       </c>
@@ -9143,7 +9143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>88</v>
       </c>
@@ -9217,7 +9217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>89</v>
       </c>
@@ -9291,7 +9291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>90</v>
       </c>
@@ -9365,7 +9365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>91</v>
       </c>
@@ -9439,7 +9439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>92</v>
       </c>
@@ -9513,7 +9513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>93</v>
       </c>
@@ -9587,7 +9587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>94</v>
       </c>
@@ -9661,7 +9661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>95</v>
       </c>
@@ -9735,7 +9735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>96</v>
       </c>
@@ -9809,7 +9809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>97</v>
       </c>
@@ -9883,7 +9883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>98</v>
       </c>
@@ -9957,7 +9957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>99</v>
       </c>
@@ -10031,7 +10031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>100</v>
       </c>
@@ -10105,7 +10105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>101</v>
       </c>
@@ -10179,7 +10179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>102</v>
       </c>
@@ -10253,7 +10253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>103</v>
       </c>
@@ -10327,7 +10327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>104</v>
       </c>
@@ -10401,7 +10401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>105</v>
       </c>
@@ -10475,7 +10475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>106</v>
       </c>
@@ -10549,7 +10549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>107</v>
       </c>
@@ -10623,7 +10623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>108</v>
       </c>
@@ -10697,7 +10697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>109</v>
       </c>
@@ -10771,7 +10771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>110</v>
       </c>
@@ -10845,7 +10845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>111</v>
       </c>
@@ -10919,7 +10919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>112</v>
       </c>
@@ -10993,7 +10993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>113</v>
       </c>
@@ -11067,7 +11067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>114</v>
       </c>
@@ -11141,7 +11141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>115</v>
       </c>
@@ -11215,7 +11215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>116</v>
       </c>
@@ -11289,7 +11289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>117</v>
       </c>
@@ -11363,7 +11363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>118</v>
       </c>
@@ -11437,7 +11437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>119</v>
       </c>
@@ -11511,7 +11511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>120</v>
       </c>
@@ -11585,7 +11585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>121</v>
       </c>
@@ -11659,7 +11659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>122</v>
       </c>
@@ -11733,7 +11733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>123</v>
       </c>
@@ -11807,7 +11807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>124</v>
       </c>
@@ -11881,7 +11881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>125</v>
       </c>
@@ -11955,7 +11955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>126</v>
       </c>
@@ -12029,7 +12029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>127</v>
       </c>
@@ -12103,7 +12103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>128</v>
       </c>
@@ -12177,7 +12177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>129</v>
       </c>
@@ -12251,7 +12251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>130</v>
       </c>
@@ -12325,7 +12325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>131</v>
       </c>
@@ -12399,7 +12399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>132</v>
       </c>
@@ -12473,7 +12473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>133</v>
       </c>
@@ -12547,7 +12547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>134</v>
       </c>
@@ -12621,7 +12621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>135</v>
       </c>
@@ -12695,7 +12695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>136</v>
       </c>
@@ -12769,7 +12769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>137</v>
       </c>
@@ -12843,7 +12843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>138</v>
       </c>
@@ -12917,7 +12917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>139</v>
       </c>
@@ -12991,7 +12991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>140</v>
       </c>
@@ -13065,7 +13065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>141</v>
       </c>
@@ -13139,7 +13139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>142</v>
       </c>
@@ -13213,7 +13213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <v>143</v>
       </c>
@@ -13287,7 +13287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>144</v>
       </c>
@@ -13361,7 +13361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>145</v>
       </c>
@@ -13435,7 +13435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <v>146</v>
       </c>
@@ -13509,7 +13509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <v>147</v>
       </c>
@@ -13583,7 +13583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <v>148</v>
       </c>
@@ -13657,7 +13657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <v>149</v>
       </c>
@@ -13731,7 +13731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <v>150</v>
       </c>
@@ -13805,7 +13805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
         <v>151</v>
       </c>
@@ -13879,7 +13879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
         <v>152</v>
       </c>
@@ -13953,7 +13953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
         <v>153</v>
       </c>
@@ -14027,7 +14027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
         <v>154</v>
       </c>
@@ -14101,7 +14101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
         <v>155</v>
       </c>
@@ -14175,7 +14175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
         <v>156</v>
       </c>
@@ -14249,7 +14249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
         <v>157</v>
       </c>
@@ -14323,7 +14323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
         <v>158</v>
       </c>
@@ -14397,7 +14397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
         <v>159</v>
       </c>
@@ -14471,7 +14471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
         <v>160</v>
       </c>
@@ -14545,7 +14545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
         <v>161</v>
       </c>
@@ -14619,7 +14619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
         <v>162</v>
       </c>
@@ -14693,7 +14693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
         <v>163</v>
       </c>
@@ -14767,7 +14767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
         <v>164</v>
       </c>
@@ -14841,7 +14841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
         <v>165</v>
       </c>
@@ -14915,7 +14915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
         <v>166</v>
       </c>
@@ -14989,7 +14989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
         <v>167</v>
       </c>
@@ -15063,7 +15063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
         <v>168</v>
       </c>
@@ -15137,7 +15137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
         <v>169</v>
       </c>
@@ -15211,7 +15211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
         <v>170</v>
       </c>
@@ -15285,7 +15285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
         <v>171</v>
       </c>
@@ -15359,7 +15359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
         <v>172</v>
       </c>
@@ -15433,7 +15433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
         <v>173</v>
       </c>
@@ -15507,7 +15507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
         <v>174</v>
       </c>
@@ -15581,7 +15581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
         <v>175</v>
       </c>
@@ -15655,7 +15655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
         <v>176</v>
       </c>
@@ -15729,7 +15729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
         <v>177</v>
       </c>
@@ -15803,7 +15803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
         <v>178</v>
       </c>
@@ -15877,7 +15877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
         <v>179</v>
       </c>
@@ -15951,7 +15951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
         <v>180</v>
       </c>
@@ -16025,7 +16025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
         <v>181</v>
       </c>
@@ -16099,7 +16099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
         <v>182</v>
       </c>
@@ -16173,7 +16173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
         <v>183</v>
       </c>
@@ -16247,7 +16247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
         <v>184</v>
       </c>
@@ -16321,7 +16321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
         <v>185</v>
       </c>
@@ -16395,7 +16395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
         <v>186</v>
       </c>
@@ -16469,7 +16469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
         <v>187</v>
       </c>
@@ -16543,7 +16543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
         <v>188</v>
       </c>
@@ -16617,7 +16617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
         <v>189</v>
       </c>
@@ -16691,7 +16691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
         <v>190</v>
       </c>
@@ -16765,7 +16765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
         <v>191</v>
       </c>
@@ -16839,7 +16839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
         <v>192</v>
       </c>
@@ -16913,7 +16913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
         <v>193</v>
       </c>
@@ -16987,7 +16987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
         <v>194</v>
       </c>
@@ -17061,7 +17061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
         <v>195</v>
       </c>
@@ -17135,7 +17135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A197" s="1">
         <v>196</v>
       </c>
@@ -17209,7 +17209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A198" s="1">
         <v>197</v>
       </c>
@@ -17283,7 +17283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
         <v>198</v>
       </c>
@@ -17357,7 +17357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A200" s="1">
         <v>199</v>
       </c>
@@ -17431,7 +17431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A201" s="1">
         <v>200</v>
       </c>
@@ -17505,7 +17505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A202" s="1">
         <v>201</v>
       </c>
@@ -17579,7 +17579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A203" s="1">
         <v>202</v>
       </c>
@@ -17653,7 +17653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A204" s="1">
         <v>203</v>
       </c>
@@ -17727,7 +17727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A205" s="1">
         <v>204</v>
       </c>
@@ -17801,7 +17801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A206" s="1">
         <v>205</v>
       </c>
@@ -17875,7 +17875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A207" s="1">
         <v>206</v>
       </c>
@@ -17949,7 +17949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A208" s="1">
         <v>207</v>
       </c>
@@ -18023,7 +18023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A209" s="1">
         <v>208</v>
       </c>
@@ -18097,7 +18097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A210" s="1">
         <v>209</v>
       </c>
@@ -18171,7 +18171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A211" s="1">
         <v>210</v>
       </c>
@@ -18245,7 +18245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A212" s="1">
         <v>211</v>
       </c>
@@ -18319,7 +18319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A213" s="1">
         <v>212</v>
       </c>
@@ -18393,7 +18393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A214" s="1">
         <v>213</v>
       </c>
@@ -18467,7 +18467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A215" s="1">
         <v>214</v>
       </c>
@@ -18541,7 +18541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A216" s="1">
         <v>215</v>
       </c>
@@ -18615,7 +18615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A217" s="1">
         <v>216</v>
       </c>
@@ -18689,7 +18689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A218" s="1">
         <v>217</v>
       </c>
@@ -18763,7 +18763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A219" s="1">
         <v>218</v>
       </c>
@@ -18837,7 +18837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A220" s="1">
         <v>219</v>
       </c>
@@ -18911,7 +18911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A221" s="1">
         <v>220</v>
       </c>
@@ -18985,7 +18985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A222" s="1">
         <v>221</v>
       </c>
@@ -19059,7 +19059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A223" s="1">
         <v>222</v>
       </c>
@@ -19133,7 +19133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A224" s="1">
         <v>223</v>
       </c>
@@ -19207,7 +19207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A225" s="1">
         <v>224</v>
       </c>
@@ -19281,7 +19281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A226" s="1">
         <v>225</v>
       </c>
@@ -19355,7 +19355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A227" s="1">
         <v>226</v>
       </c>
@@ -19429,7 +19429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A228" s="1">
         <v>227</v>
       </c>
@@ -19503,7 +19503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A229" s="1">
         <v>228</v>
       </c>
@@ -19577,7 +19577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A230" s="1">
         <v>229</v>
       </c>
@@ -19651,7 +19651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A231" s="1">
         <v>230</v>
       </c>
@@ -19725,7 +19725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A232" s="1">
         <v>231</v>
       </c>
@@ -19799,7 +19799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A233" s="1">
         <v>232</v>
       </c>
@@ -19873,7 +19873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A234" s="1">
         <v>233</v>
       </c>
@@ -19947,7 +19947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A235" s="1">
         <v>234</v>
       </c>
@@ -20021,7 +20021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A236" s="1">
         <v>235</v>
       </c>
@@ -20095,7 +20095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A237" s="1">
         <v>236</v>
       </c>
@@ -20169,7 +20169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A238" s="1">
         <v>237</v>
       </c>
@@ -20243,7 +20243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A239" s="1">
         <v>238</v>
       </c>
@@ -20317,7 +20317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A240" s="1">
         <v>239</v>
       </c>
@@ -20391,7 +20391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A241" s="1">
         <v>240</v>
       </c>
@@ -20465,7 +20465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A242" s="1">
         <v>241</v>
       </c>
@@ -20539,7 +20539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A243" s="1">
         <v>242</v>
       </c>
@@ -20613,7 +20613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A244" s="1">
         <v>243</v>
       </c>
@@ -20687,7 +20687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A245" s="1">
         <v>244</v>
       </c>
@@ -20761,7 +20761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A246" s="1">
         <v>245</v>
       </c>
@@ -20835,7 +20835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A247" s="1">
         <v>246</v>
       </c>
@@ -20909,7 +20909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A248" s="1">
         <v>247</v>
       </c>
@@ -20983,7 +20983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A249" s="1">
         <v>248</v>
       </c>
@@ -21057,7 +21057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A250" s="1">
         <v>249</v>
       </c>
@@ -21131,7 +21131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A251" s="1">
         <v>250</v>
       </c>
@@ -21205,7 +21205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A252" s="1">
         <v>251</v>
       </c>
@@ -21279,7 +21279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A253" s="1">
         <v>252</v>
       </c>
@@ -21353,7 +21353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A254" s="1">
         <v>253</v>
       </c>
@@ -21427,7 +21427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A255" s="1">
         <v>254</v>
       </c>
@@ -21501,7 +21501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A256" s="1">
         <v>255</v>
       </c>
@@ -21575,7 +21575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A257" s="1">
         <v>256</v>
       </c>
@@ -21649,7 +21649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A258" s="1">
         <v>257</v>
       </c>
@@ -21723,7 +21723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A259" s="1">
         <v>258</v>
       </c>
@@ -21797,7 +21797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A260" s="1">
         <v>259</v>
       </c>
@@ -21871,7 +21871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A261" s="1">
         <v>260</v>
       </c>
@@ -21945,7 +21945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A262" s="1">
         <v>261</v>
       </c>
@@ -22019,7 +22019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A263" s="1">
         <v>262</v>
       </c>
@@ -22093,7 +22093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A264" s="1">
         <v>263</v>
       </c>
@@ -22167,7 +22167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A265" s="1">
         <v>264</v>
       </c>
@@ -22241,7 +22241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A266" s="1">
         <v>265</v>
       </c>
@@ -22315,7 +22315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A267" s="1">
         <v>266</v>
       </c>
@@ -22389,7 +22389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A268" s="1">
         <v>267</v>
       </c>
@@ -22463,7 +22463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A269" s="1">
         <v>268</v>
       </c>
@@ -22537,7 +22537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A270" s="1">
         <v>269</v>
       </c>
@@ -22611,7 +22611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A271" s="1">
         <v>270</v>
       </c>
@@ -22685,7 +22685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A272" s="1">
         <v>271</v>
       </c>
@@ -22759,7 +22759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A273" s="1">
         <v>272</v>
       </c>
@@ -22833,7 +22833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A274" s="1">
         <v>273</v>
       </c>
@@ -22907,7 +22907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A275" s="1">
         <v>274</v>
       </c>
@@ -22981,7 +22981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A276" s="1">
         <v>275</v>
       </c>
@@ -23055,7 +23055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A277" s="1">
         <v>276</v>
       </c>
@@ -23129,7 +23129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A278" s="1">
         <v>277</v>
       </c>
@@ -23203,7 +23203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A279" s="1">
         <v>278</v>
       </c>
@@ -23277,7 +23277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A280" s="1">
         <v>279</v>
       </c>
@@ -23351,7 +23351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A281" s="1">
         <v>280</v>
       </c>
@@ -23425,7 +23425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A282" s="1">
         <v>281</v>
       </c>
@@ -23499,7 +23499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A283" s="1">
         <v>282</v>
       </c>
@@ -23573,7 +23573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A284" s="1">
         <v>283</v>
       </c>
@@ -23647,7 +23647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A285" s="1">
         <v>284</v>
       </c>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A286" s="1">
         <v>285</v>
       </c>
@@ -23795,7 +23795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A287" s="1">
         <v>286</v>
       </c>
@@ -23869,7 +23869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A288" s="1">
         <v>287</v>
       </c>
@@ -23943,12 +23943,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A289" s="1">
         <v>288</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>374</v>
+        <v>571</v>
       </c>
       <c r="C289" s="2" t="s">
         <v>103</v>
@@ -24017,12 +24017,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A290" s="1">
         <v>289</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C290" s="2" t="s">
         <v>19</v>
@@ -24091,12 +24091,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A291" s="1">
         <v>290</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C291" s="2" t="s">
         <v>249</v>
@@ -24165,15 +24165,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A292" s="1">
         <v>291</v>
       </c>
       <c r="B292" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="C292" s="2" t="s">
         <v>377</v>
-      </c>
-      <c r="C292" s="2" t="s">
-        <v>378</v>
       </c>
       <c r="D292" s="2" t="s">
         <v>20</v>
@@ -24239,12 +24239,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A293" s="1">
         <v>292</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C293" s="2" t="s">
         <v>122</v>
@@ -24313,12 +24313,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A294" s="1">
         <v>293</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C294" s="2" t="s">
         <v>19</v>
@@ -24387,12 +24387,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A295" s="1">
         <v>294</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C295" s="2" t="s">
         <v>103</v>
@@ -24461,12 +24461,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A296" s="1">
         <v>295</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C296" s="2" t="s">
         <v>98</v>
@@ -24535,12 +24535,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A297" s="1">
         <v>296</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C297" s="2" t="s">
         <v>19</v>
@@ -24609,12 +24609,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A298" s="1">
         <v>297</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C298" s="2" t="s">
         <v>19</v>
@@ -24683,12 +24683,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A299" s="1">
         <v>298</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C299" s="2" t="s">
         <v>19</v>
@@ -24757,15 +24757,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A300" s="1">
         <v>299</v>
       </c>
       <c r="B300" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="C300" s="2" t="s">
         <v>386</v>
-      </c>
-      <c r="C300" s="2" t="s">
-        <v>387</v>
       </c>
       <c r="D300" s="2" t="s">
         <v>32</v>
@@ -24831,12 +24831,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A301" s="1">
         <v>300</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C301" s="2" t="s">
         <v>19</v>
@@ -24905,12 +24905,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A302" s="1">
         <v>301</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C302" s="2" t="s">
         <v>19</v>
@@ -24979,12 +24979,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A303" s="1">
         <v>302</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C303" s="2" t="s">
         <v>98</v>
@@ -25053,12 +25053,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A304" s="1">
         <v>303</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C304" s="2" t="s">
         <v>19</v>
@@ -25127,12 +25127,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A305" s="1">
         <v>304</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C305" s="2" t="s">
         <v>43</v>
@@ -25201,12 +25201,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A306" s="1">
         <v>305</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C306" s="2" t="s">
         <v>19</v>
@@ -25275,12 +25275,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A307" s="1">
         <v>306</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C307" s="2" t="s">
         <v>19</v>
@@ -25349,15 +25349,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A308" s="1">
         <v>307</v>
       </c>
       <c r="B308" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="C308" s="2" t="s">
         <v>395</v>
-      </c>
-      <c r="C308" s="2" t="s">
-        <v>396</v>
       </c>
       <c r="D308" s="2" t="s">
         <v>79</v>
@@ -25423,12 +25423,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A309" s="1">
         <v>308</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C309" s="2" t="s">
         <v>59</v>
@@ -25497,12 +25497,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A310" s="1">
         <v>309</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C310" s="2" t="s">
         <v>111</v>
@@ -25571,12 +25571,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A311" s="1">
         <v>310</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C311" s="2" t="s">
         <v>19</v>
@@ -25645,12 +25645,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A312" s="1">
         <v>311</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C312" s="2" t="s">
         <v>122</v>
@@ -25719,12 +25719,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A313" s="1">
         <v>312</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C313" s="2" t="s">
         <v>134</v>
@@ -25793,12 +25793,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A314" s="1">
         <v>313</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C314" s="2" t="s">
         <v>19</v>
@@ -25867,15 +25867,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A315" s="1">
         <v>314</v>
       </c>
       <c r="B315" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="C315" s="2" t="s">
         <v>403</v>
-      </c>
-      <c r="C315" s="2" t="s">
-        <v>404</v>
       </c>
       <c r="D315" s="2" t="s">
         <v>49</v>
@@ -25941,12 +25941,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A316" s="1">
         <v>315</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C316" s="2" t="s">
         <v>264</v>
@@ -26015,12 +26015,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A317" s="1">
         <v>316</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C317" s="2" t="s">
         <v>19</v>
@@ -26089,12 +26089,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="318" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A318" s="1">
         <v>317</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C318" s="2" t="s">
         <v>19</v>
@@ -26163,15 +26163,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A319" s="1">
         <v>318</v>
       </c>
       <c r="B319" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="C319" s="2" t="s">
         <v>408</v>
-      </c>
-      <c r="C319" s="2" t="s">
-        <v>409</v>
       </c>
       <c r="D319" s="2" t="s">
         <v>49</v>
@@ -26237,15 +26237,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A320" s="1">
         <v>319</v>
       </c>
       <c r="B320" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="C320" s="2" t="s">
         <v>410</v>
-      </c>
-      <c r="C320" s="2" t="s">
-        <v>411</v>
       </c>
       <c r="D320" s="2" t="s">
         <v>20</v>
@@ -26311,12 +26311,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A321" s="1">
         <v>320</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C321" s="2" t="s">
         <v>146</v>
@@ -26385,12 +26385,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A322" s="1">
         <v>321</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C322" s="2" t="s">
         <v>132</v>
@@ -26459,12 +26459,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A323" s="1">
         <v>322</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C323" s="2" t="s">
         <v>103</v>
@@ -26533,12 +26533,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A324" s="1">
         <v>323</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C324" s="2" t="s">
         <v>59</v>
@@ -26607,12 +26607,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A325" s="1">
         <v>324</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C325" s="2" t="s">
         <v>92</v>
@@ -26681,12 +26681,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A326" s="1">
         <v>325</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C326" s="2" t="s">
         <v>19</v>
@@ -26755,12 +26755,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A327" s="1">
         <v>326</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C327" s="2" t="s">
         <v>98</v>
@@ -26829,12 +26829,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A328" s="1">
         <v>327</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C328" s="2" t="s">
         <v>146</v>
@@ -26903,15 +26903,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A329" s="1">
         <v>328</v>
       </c>
       <c r="B329" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="C329" s="2" t="s">
         <v>420</v>
-      </c>
-      <c r="C329" s="2" t="s">
-        <v>421</v>
       </c>
       <c r="D329" s="2" t="s">
         <v>20</v>
@@ -26977,12 +26977,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A330" s="1">
         <v>329</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C330" s="2" t="s">
         <v>103</v>
@@ -27051,12 +27051,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A331" s="1">
         <v>330</v>
       </c>
       <c r="B331" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C331" s="2" t="s">
         <v>19</v>
@@ -27125,12 +27125,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A332" s="1">
         <v>331</v>
       </c>
       <c r="B332" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C332" s="2" t="s">
         <v>70</v>
@@ -27199,12 +27199,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A333" s="1">
         <v>332</v>
       </c>
       <c r="B333" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C333" s="2" t="s">
         <v>48</v>
@@ -27273,15 +27273,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A334" s="1">
         <v>333</v>
       </c>
       <c r="B334" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="C334" s="2" t="s">
         <v>426</v>
-      </c>
-      <c r="C334" s="2" t="s">
-        <v>427</v>
       </c>
       <c r="D334" s="2" t="s">
         <v>32</v>
@@ -27347,12 +27347,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A335" s="1">
         <v>334</v>
       </c>
       <c r="B335" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C335" s="2" t="s">
         <v>268</v>
@@ -27421,12 +27421,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="336" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A336" s="1">
         <v>335</v>
       </c>
       <c r="B336" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C336" s="2" t="s">
         <v>59</v>
@@ -27495,12 +27495,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A337" s="1">
         <v>336</v>
       </c>
       <c r="B337" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C337" s="2" t="s">
         <v>19</v>
@@ -27569,7 +27569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A338" s="1">
         <v>337</v>
       </c>
@@ -27643,12 +27643,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A339" s="1">
         <v>338</v>
       </c>
       <c r="B339" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C339" s="2" t="s">
         <v>70</v>
@@ -27717,12 +27717,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A340" s="1">
         <v>339</v>
       </c>
       <c r="B340" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C340" s="2" t="s">
         <v>268</v>
@@ -27791,12 +27791,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A341" s="1">
         <v>340</v>
       </c>
       <c r="B341" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C341" s="2" t="s">
         <v>19</v>
@@ -27865,15 +27865,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A342" s="1">
         <v>341</v>
       </c>
       <c r="B342" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C342" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D342" s="2" t="s">
         <v>79</v>
@@ -27939,12 +27939,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A343" s="1">
         <v>342</v>
       </c>
       <c r="B343" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C343" s="2" t="s">
         <v>70</v>
@@ -28013,12 +28013,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A344" s="1">
         <v>343</v>
       </c>
       <c r="B344" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C344" s="2" t="s">
         <v>234</v>
@@ -28087,12 +28087,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A345" s="1">
         <v>344</v>
       </c>
       <c r="B345" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C345" s="2" t="s">
         <v>103</v>
@@ -28161,15 +28161,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A346" s="1">
         <v>345</v>
       </c>
       <c r="B346" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="C346" s="2" t="s">
         <v>438</v>
-      </c>
-      <c r="C346" s="2" t="s">
-        <v>439</v>
       </c>
       <c r="D346" s="2" t="s">
         <v>49</v>
@@ -28235,12 +28235,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A347" s="1">
         <v>346</v>
       </c>
       <c r="B347" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C347" s="2" t="s">
         <v>56</v>
@@ -28309,15 +28309,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A348" s="1">
         <v>347</v>
       </c>
       <c r="B348" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C348" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D348" s="2" t="s">
         <v>62</v>
@@ -28383,12 +28383,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A349" s="1">
         <v>348</v>
       </c>
       <c r="B349" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C349" s="2" t="s">
         <v>19</v>
@@ -28457,15 +28457,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A350" s="1">
         <v>349</v>
       </c>
       <c r="B350" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="C350" s="2" t="s">
         <v>443</v>
-      </c>
-      <c r="C350" s="2" t="s">
-        <v>444</v>
       </c>
       <c r="D350" s="2" t="s">
         <v>20</v>
@@ -28531,12 +28531,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A351" s="1">
         <v>350</v>
       </c>
       <c r="B351" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C351" s="2" t="s">
         <v>234</v>
@@ -28605,12 +28605,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A352" s="1">
         <v>351</v>
       </c>
       <c r="B352" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C352" s="2" t="s">
         <v>19</v>
@@ -28679,12 +28679,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A353" s="1">
         <v>352</v>
       </c>
       <c r="B353" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C353" s="2" t="s">
         <v>132</v>
@@ -28753,15 +28753,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A354" s="1">
         <v>353</v>
       </c>
       <c r="B354" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C354" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D354" s="2" t="s">
         <v>20</v>
@@ -28827,12 +28827,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A355" s="1">
         <v>354</v>
       </c>
       <c r="B355" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C355" s="2" t="s">
         <v>19</v>
@@ -28901,12 +28901,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A356" s="1">
         <v>355</v>
       </c>
       <c r="B356" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C356" s="2" t="s">
         <v>98</v>
@@ -28975,12 +28975,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A357" s="1">
         <v>356</v>
       </c>
       <c r="B357" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C357" s="2" t="s">
         <v>98</v>
@@ -29049,12 +29049,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A358" s="1">
         <v>357</v>
       </c>
       <c r="B358" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C358" s="2" t="s">
         <v>95</v>
@@ -29123,12 +29123,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A359" s="1">
         <v>358</v>
       </c>
       <c r="B359" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C359" s="2" t="s">
         <v>89</v>
@@ -29197,12 +29197,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A360" s="1">
         <v>359</v>
       </c>
       <c r="B360" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C360" s="2" t="s">
         <v>95</v>
@@ -29271,15 +29271,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A361" s="1">
         <v>360</v>
       </c>
       <c r="B361" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="C361" s="2" t="s">
         <v>455</v>
-      </c>
-      <c r="C361" s="2" t="s">
-        <v>456</v>
       </c>
       <c r="D361" s="2" t="s">
         <v>20</v>
@@ -29345,12 +29345,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A362" s="1">
         <v>361</v>
       </c>
       <c r="B362" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C362" s="2" t="s">
         <v>19</v>
@@ -29419,12 +29419,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A363" s="1">
         <v>362</v>
       </c>
       <c r="B363" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C363" s="2" t="s">
         <v>134</v>
@@ -29493,12 +29493,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A364" s="1">
         <v>363</v>
       </c>
       <c r="B364" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C364" s="2" t="s">
         <v>268</v>
@@ -29567,12 +29567,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A365" s="1">
         <v>364</v>
       </c>
       <c r="B365" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C365" s="2" t="s">
         <v>234</v>
@@ -29641,12 +29641,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A366" s="1">
         <v>365</v>
       </c>
       <c r="B366" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C366" s="2" t="s">
         <v>43</v>
@@ -29715,15 +29715,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A367" s="1">
         <v>366</v>
       </c>
       <c r="B367" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C367" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D367" s="2" t="s">
         <v>32</v>
@@ -29789,12 +29789,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A368" s="1">
         <v>367</v>
       </c>
       <c r="B368" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C368" s="2" t="s">
         <v>19</v>
@@ -29863,12 +29863,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A369" s="1">
         <v>368</v>
       </c>
       <c r="B369" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C369" s="2" t="s">
         <v>98</v>
@@ -29937,12 +29937,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A370" s="1">
         <v>369</v>
       </c>
       <c r="B370" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C370" s="2" t="s">
         <v>19</v>
@@ -30011,12 +30011,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A371" s="1">
         <v>370</v>
       </c>
       <c r="B371" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C371" s="2" t="s">
         <v>19</v>
@@ -30085,7 +30085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A372" s="1">
         <v>371</v>
       </c>
@@ -30159,15 +30159,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A373" s="1">
         <v>372</v>
       </c>
       <c r="B373" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C373" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D373" s="2" t="s">
         <v>20</v>
@@ -30233,12 +30233,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A374" s="1">
         <v>373</v>
       </c>
       <c r="B374" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C374" s="2" t="s">
         <v>19</v>
@@ -30307,12 +30307,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A375" s="1">
         <v>374</v>
       </c>
       <c r="B375" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C375" s="2" t="s">
         <v>98</v>
@@ -30381,12 +30381,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A376" s="1">
         <v>375</v>
       </c>
       <c r="B376" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C376" s="2" t="s">
         <v>19</v>
@@ -30455,12 +30455,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A377" s="1">
         <v>376</v>
       </c>
       <c r="B377" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C377" s="2" t="s">
         <v>89</v>
@@ -30529,12 +30529,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A378" s="1">
         <v>377</v>
       </c>
       <c r="B378" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C378" s="2" t="s">
         <v>19</v>
@@ -30603,12 +30603,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A379" s="1">
         <v>378</v>
       </c>
       <c r="B379" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C379" s="2" t="s">
         <v>98</v>
@@ -30677,12 +30677,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A380" s="1">
         <v>379</v>
       </c>
       <c r="B380" s="2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C380" s="2" t="s">
         <v>19</v>
@@ -30751,12 +30751,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A381" s="1">
         <v>380</v>
       </c>
       <c r="B381" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C381" s="2" t="s">
         <v>19</v>
@@ -30825,12 +30825,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A382" s="1">
         <v>381</v>
       </c>
       <c r="B382" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C382" s="2" t="s">
         <v>59</v>
@@ -30899,12 +30899,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A383" s="1">
         <v>382</v>
       </c>
       <c r="B383" s="2" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C383" s="2" t="s">
         <v>139</v>
@@ -30973,12 +30973,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A384" s="1">
         <v>383</v>
       </c>
       <c r="B384" s="2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C384" s="2" t="s">
         <v>19</v>
@@ -31047,12 +31047,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A385" s="1">
         <v>384</v>
       </c>
       <c r="B385" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C385" s="2" t="s">
         <v>19</v>
@@ -31121,12 +31121,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A386" s="1">
         <v>385</v>
       </c>
       <c r="B386" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C386" s="2" t="s">
         <v>134</v>
@@ -31195,12 +31195,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A387" s="1">
         <v>386</v>
       </c>
       <c r="B387" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C387" s="2" t="s">
         <v>26</v>
@@ -31269,12 +31269,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A388" s="1">
         <v>387</v>
       </c>
       <c r="B388" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C388" s="2" t="s">
         <v>19</v>
@@ -31343,7 +31343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A389" s="1">
         <v>388</v>
       </c>
@@ -31417,12 +31417,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A390" s="1">
         <v>389</v>
       </c>
       <c r="B390" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C390" s="2" t="s">
         <v>117</v>
@@ -31491,12 +31491,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A391" s="1">
         <v>390</v>
       </c>
       <c r="B391" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C391" s="2" t="s">
         <v>111</v>
@@ -31565,12 +31565,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A392" s="1">
         <v>391</v>
       </c>
       <c r="B392" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C392" s="2" t="s">
         <v>68</v>
@@ -31639,12 +31639,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A393" s="1">
         <v>392</v>
       </c>
       <c r="B393" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C393" s="2" t="s">
         <v>19</v>
@@ -31713,12 +31713,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A394" s="1">
         <v>393</v>
       </c>
       <c r="B394" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C394" s="2" t="s">
         <v>19</v>
@@ -31787,12 +31787,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A395" s="1">
         <v>394</v>
       </c>
       <c r="B395" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C395" s="2" t="s">
         <v>19</v>
@@ -31861,12 +31861,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A396" s="1">
         <v>395</v>
       </c>
       <c r="B396" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C396" s="2" t="s">
         <v>111</v>
@@ -31935,15 +31935,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A397" s="1">
         <v>396</v>
       </c>
       <c r="B397" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="C397" s="2" t="s">
         <v>489</v>
-      </c>
-      <c r="C397" s="2" t="s">
-        <v>490</v>
       </c>
       <c r="D397" s="2" t="s">
         <v>79</v>
@@ -32009,12 +32009,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A398" s="1">
         <v>397</v>
       </c>
       <c r="B398" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C398" s="2" t="s">
         <v>103</v>
@@ -32083,12 +32083,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A399" s="1">
         <v>398</v>
       </c>
       <c r="B399" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C399" s="2" t="s">
         <v>43</v>
@@ -32157,12 +32157,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A400" s="1">
         <v>399</v>
       </c>
       <c r="B400" s="2" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C400" s="2" t="s">
         <v>26</v>
@@ -32231,12 +32231,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A401" s="1">
         <v>400</v>
       </c>
       <c r="B401" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C401" s="2" t="s">
         <v>41</v>
@@ -32305,12 +32305,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A402" s="1">
         <v>401</v>
       </c>
       <c r="B402" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C402" s="2" t="s">
         <v>98</v>
@@ -32379,12 +32379,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A403" s="1">
         <v>402</v>
       </c>
       <c r="B403" s="2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C403" s="2" t="s">
         <v>103</v>
@@ -32453,12 +32453,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A404" s="1">
         <v>403</v>
       </c>
       <c r="B404" s="2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C404" s="2" t="s">
         <v>59</v>
@@ -32527,12 +32527,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A405" s="1">
         <v>404</v>
       </c>
       <c r="B405" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C405" s="2" t="s">
         <v>373</v>
@@ -32601,12 +32601,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A406" s="1">
         <v>405</v>
       </c>
       <c r="B406" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C406" s="2" t="s">
         <v>19</v>
@@ -32675,15 +32675,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A407" s="1">
         <v>406</v>
       </c>
       <c r="B407" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C407" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D407" s="2" t="s">
         <v>49</v>
@@ -32749,15 +32749,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A408" s="1">
         <v>407</v>
       </c>
       <c r="B408" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="C408" s="2" t="s">
         <v>501</v>
-      </c>
-      <c r="C408" s="2" t="s">
-        <v>502</v>
       </c>
       <c r="D408" s="2" t="s">
         <v>79</v>
@@ -32823,12 +32823,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="409" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A409" s="1">
         <v>408</v>
       </c>
       <c r="B409" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C409" s="2" t="s">
         <v>19</v>
@@ -32897,12 +32897,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A410" s="1">
         <v>409</v>
       </c>
       <c r="B410" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C410" s="2" t="s">
         <v>26</v>
@@ -32971,12 +32971,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="411" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A411" s="1">
         <v>410</v>
       </c>
       <c r="B411" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C411" s="2" t="s">
         <v>19</v>
@@ -33045,12 +33045,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A412" s="1">
         <v>411</v>
       </c>
       <c r="B412" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C412" s="2" t="s">
         <v>137</v>
@@ -33119,15 +33119,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="413" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A413" s="1">
         <v>412</v>
       </c>
       <c r="B413" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="C413" s="2" t="s">
         <v>507</v>
-      </c>
-      <c r="C413" s="2" t="s">
-        <v>508</v>
       </c>
       <c r="D413" s="2" t="s">
         <v>346</v>
@@ -33193,12 +33193,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A414" s="1">
         <v>413</v>
       </c>
       <c r="B414" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C414" s="2" t="s">
         <v>56</v>
@@ -33267,12 +33267,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A415" s="1">
         <v>414</v>
       </c>
       <c r="B415" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C415" s="2" t="s">
         <v>209</v>
@@ -33341,12 +33341,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="416" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A416" s="1">
         <v>415</v>
       </c>
       <c r="B416" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C416" s="2" t="s">
         <v>59</v>
@@ -33415,15 +33415,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A417" s="1">
         <v>416</v>
       </c>
       <c r="B417" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C417" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D417" s="2" t="s">
         <v>23</v>
@@ -33489,12 +33489,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A418" s="1">
         <v>417</v>
       </c>
       <c r="B418" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C418" s="2" t="s">
         <v>19</v>
@@ -33563,12 +33563,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A419" s="1">
         <v>418</v>
       </c>
       <c r="B419" s="2" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C419" s="2" t="s">
         <v>122</v>
@@ -33637,12 +33637,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A420" s="1">
         <v>419</v>
       </c>
       <c r="B420" s="2" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C420" s="2" t="s">
         <v>19</v>
@@ -33711,15 +33711,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A421" s="1">
         <v>420</v>
       </c>
       <c r="B421" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="C421" s="2" t="s">
         <v>516</v>
-      </c>
-      <c r="C421" s="2" t="s">
-        <v>517</v>
       </c>
       <c r="D421" s="2" t="s">
         <v>32</v>
@@ -33785,12 +33785,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A422" s="1">
         <v>421</v>
       </c>
       <c r="B422" s="2" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C422" s="2" t="s">
         <v>139</v>
@@ -33859,12 +33859,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="423" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A423" s="1">
         <v>422</v>
       </c>
       <c r="B423" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C423" s="2" t="s">
         <v>89</v>
@@ -33933,12 +33933,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="424" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A424" s="1">
         <v>423</v>
       </c>
       <c r="B424" s="2" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C424" s="2" t="s">
         <v>19</v>
@@ -34007,12 +34007,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="425" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A425" s="1">
         <v>424</v>
       </c>
       <c r="B425" s="2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C425" s="2" t="s">
         <v>59</v>
@@ -34081,12 +34081,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="426" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A426" s="1">
         <v>425</v>
       </c>
       <c r="B426" s="2" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C426" s="2" t="s">
         <v>19</v>
@@ -34155,7 +34155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="427" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A427" s="1">
         <v>426</v>
       </c>
@@ -34229,12 +34229,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="428" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A428" s="1">
         <v>427</v>
       </c>
       <c r="B428" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C428" s="2" t="s">
         <v>98</v>
@@ -34303,12 +34303,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="429" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A429" s="1">
         <v>428</v>
       </c>
       <c r="B429" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C429" s="2" t="s">
         <v>357</v>
@@ -34377,12 +34377,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="430" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A430" s="1">
         <v>429</v>
       </c>
       <c r="B430" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C430" s="2" t="s">
         <v>19</v>
@@ -34451,12 +34451,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="431" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A431" s="1">
         <v>430</v>
       </c>
       <c r="B431" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C431" s="2" t="s">
         <v>19</v>
@@ -34525,12 +34525,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="432" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A432" s="1">
         <v>431</v>
       </c>
       <c r="B432" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C432" s="2" t="s">
         <v>98</v>
@@ -34599,15 +34599,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="433" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A433" s="1">
         <v>432</v>
       </c>
       <c r="B433" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="C433" s="2" t="s">
         <v>528</v>
-      </c>
-      <c r="C433" s="2" t="s">
-        <v>529</v>
       </c>
       <c r="D433" s="2" t="s">
         <v>79</v>
@@ -34673,12 +34673,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="434" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A434" s="1">
         <v>433</v>
       </c>
       <c r="B434" s="2" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C434" s="2" t="s">
         <v>19</v>
@@ -34747,12 +34747,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="435" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A435" s="1">
         <v>434</v>
       </c>
       <c r="B435" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C435" s="2" t="s">
         <v>19</v>
@@ -34821,12 +34821,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A436" s="1">
         <v>435</v>
       </c>
       <c r="B436" s="2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C436" s="2" t="s">
         <v>89</v>
@@ -34895,15 +34895,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="437" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A437" s="1">
         <v>436</v>
       </c>
       <c r="B437" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C437" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D437" s="2" t="s">
         <v>49</v>
@@ -34969,12 +34969,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="438" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A438" s="1">
         <v>437</v>
       </c>
       <c r="B438" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C438" s="2" t="s">
         <v>19</v>
@@ -35043,12 +35043,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="439" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A439" s="1">
         <v>438</v>
       </c>
       <c r="B439" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C439" s="2" t="s">
         <v>48</v>
@@ -35117,12 +35117,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="440" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A440" s="1">
         <v>439</v>
       </c>
       <c r="B440" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C440" s="2" t="s">
         <v>19</v>
@@ -35191,12 +35191,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="441" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A441" s="1">
         <v>440</v>
       </c>
       <c r="B441" s="2" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C441" s="2" t="s">
         <v>134</v>
@@ -35265,12 +35265,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="442" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A442" s="1">
         <v>441</v>
       </c>
       <c r="B442" s="2" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C442" s="2" t="s">
         <v>89</v>
@@ -35339,12 +35339,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="443" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A443" s="1">
         <v>442</v>
       </c>
       <c r="B443" s="2" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C443" s="2" t="s">
         <v>19</v>
@@ -35413,12 +35413,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="444" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A444" s="1">
         <v>443</v>
       </c>
       <c r="B444" s="2" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C444" s="2" t="s">
         <v>354</v>
@@ -35487,12 +35487,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="445" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A445" s="1">
         <v>444</v>
       </c>
       <c r="B445" s="2" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C445" s="2" t="s">
         <v>146</v>
@@ -35561,12 +35561,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="446" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A446" s="1">
         <v>445</v>
       </c>
       <c r="B446" s="2" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C446" s="2" t="s">
         <v>373</v>
@@ -35635,12 +35635,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="447" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A447" s="1">
         <v>446</v>
       </c>
       <c r="B447" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C447" s="2" t="s">
         <v>146</v>
@@ -35709,12 +35709,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="448" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A448" s="1">
         <v>447</v>
       </c>
       <c r="B448" s="2" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C448" s="2" t="s">
         <v>19</v>
@@ -35783,12 +35783,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="449" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A449" s="1">
         <v>448</v>
       </c>
       <c r="B449" s="2" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C449" s="2" t="s">
         <v>19</v>
@@ -35857,12 +35857,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="450" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A450" s="1">
         <v>449</v>
       </c>
       <c r="B450" s="2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C450" s="2" t="s">
         <v>117</v>
@@ -35931,12 +35931,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="451" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A451" s="1">
         <v>450</v>
       </c>
       <c r="B451" s="2" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C451" s="2" t="s">
         <v>19</v>
@@ -36005,12 +36005,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="452" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A452" s="1">
         <v>451</v>
       </c>
       <c r="B452" s="2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C452" s="2" t="s">
         <v>19</v>
@@ -36079,12 +36079,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="453" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A453" s="1">
         <v>452</v>
       </c>
       <c r="B453" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C453" s="2" t="s">
         <v>222</v>
@@ -36153,12 +36153,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="454" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A454" s="1">
         <v>453</v>
       </c>
       <c r="B454" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C454" s="2" t="s">
         <v>98</v>
@@ -36227,12 +36227,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="455" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A455" s="1">
         <v>454</v>
       </c>
       <c r="B455" s="2" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C455" s="2" t="s">
         <v>19</v>
@@ -36301,12 +36301,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="456" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A456" s="1">
         <v>455</v>
       </c>
       <c r="B456" s="2" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C456" s="2" t="s">
         <v>19</v>
@@ -36375,12 +36375,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="457" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A457" s="1">
         <v>456</v>
       </c>
       <c r="B457" s="2" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C457" s="2" t="s">
         <v>132</v>
@@ -36449,12 +36449,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="458" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A458" s="1">
         <v>457</v>
       </c>
       <c r="B458" s="2" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C458" s="2" t="s">
         <v>111</v>
@@ -36523,12 +36523,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="459" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A459" s="1">
         <v>458</v>
       </c>
       <c r="B459" s="2" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C459" s="2" t="s">
         <v>137</v>
@@ -36597,12 +36597,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="460" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A460" s="1">
         <v>459</v>
       </c>
       <c r="B460" s="2" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C460" s="2" t="s">
         <v>111</v>
@@ -36671,12 +36671,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="461" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A461" s="1">
         <v>460</v>
       </c>
       <c r="B461" s="2" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C461" s="2" t="s">
         <v>19</v>
@@ -36745,12 +36745,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="462" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A462" s="1">
         <v>461</v>
       </c>
       <c r="B462" s="2" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C462" s="2" t="s">
         <v>373</v>
@@ -36819,12 +36819,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="463" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A463" s="1">
         <v>462</v>
       </c>
       <c r="B463" s="2" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C463" s="2" t="s">
         <v>19</v>
@@ -36893,12 +36893,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="464" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A464" s="1">
         <v>463</v>
       </c>
       <c r="B464" s="2" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C464" s="2" t="s">
         <v>48</v>
@@ -36967,12 +36967,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="465" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A465" s="1">
         <v>464</v>
       </c>
       <c r="B465" s="2" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C465" s="2" t="s">
         <v>19</v>
@@ -37041,12 +37041,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="466" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A466" s="1">
         <v>465</v>
       </c>
       <c r="B466" s="2" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C466" s="2" t="s">
         <v>19</v>
@@ -37115,12 +37115,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="467" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A467" s="1">
         <v>466</v>
       </c>
       <c r="B467" s="2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C467" s="2" t="s">
         <v>41</v>
@@ -37189,12 +37189,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="468" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A468" s="1">
         <v>467</v>
       </c>
       <c r="B468" s="2" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C468" s="2" t="s">
         <v>249</v>
@@ -37263,12 +37263,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="469" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A469" s="1">
         <v>468</v>
       </c>
       <c r="B469" s="2" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C469" s="2" t="s">
         <v>19</v>
@@ -37337,12 +37337,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="470" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A470" s="1">
         <v>469</v>
       </c>
       <c r="B470" s="2" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C470" s="2" t="s">
         <v>19</v>
@@ -37411,12 +37411,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="471" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A471" s="1">
         <v>470</v>
       </c>
       <c r="B471" s="2" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C471" s="2" t="s">
         <v>111</v>
@@ -37485,12 +37485,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="472" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A472" s="1">
         <v>471</v>
       </c>
       <c r="B472" s="2" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C472" s="2" t="s">
         <v>19</v>
@@ -37559,12 +37559,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="473" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A473" s="1">
         <v>472</v>
       </c>
       <c r="B473" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C473" s="2" t="s">
         <v>19</v>
@@ -37633,15 +37633,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="474" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A474" s="1">
         <v>473</v>
       </c>
       <c r="B474" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C474" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D474" s="2" t="s">
         <v>49</v>
@@ -37707,12 +37707,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="475" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A475" s="1">
         <v>474</v>
       </c>
       <c r="B475" s="2" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C475" s="2" t="s">
         <v>146</v>
@@ -37781,7 +37781,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="476" spans="1:24" ht="12" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
